--- a/Input/MATSimInputNEW.xlsx
+++ b/Input/MATSimInputNEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjaarda\Desktop\SwissTraffic\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D442C1-1084-4946-A97F-96AA881C0C0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7844556A-E53E-41DE-91B6-CA51FD38EACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20595" windowHeight="9945" tabRatio="813" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="13770" windowHeight="9945" tabRatio="813" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseData" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>x</t>
   </si>
@@ -112,22 +112,10 @@
     <t>Ceneri2017</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1183,8 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1268,7 +1256,7 @@
         <v>100</v>
       </c>
       <c r="C2" s="5">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1301,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
         <v>1</v>
@@ -1321,7 +1309,7 @@
         <v>100</v>
       </c>
       <c r="C3" s="5">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
@@ -1333,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
         <v>4</v>
@@ -1354,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="5">
         <v>1</v>
@@ -1376,10 +1364,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:L584"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K22"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1420,16 +1411,7 @@
         <v>10</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -1460,15 +1442,9 @@
       <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="J2" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="K2" s="11">
-        <v>-0.5</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
@@ -1487,7 +1463,7 @@
         <v>28</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -1498,15 +1474,9 @@
       <c r="I3" s="10">
         <v>0.95</v>
       </c>
-      <c r="J3" s="11">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="K3" s="11">
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.95</v>
-      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
@@ -1518,15 +1488,7 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>4</v>
       </c>
@@ -1536,29 +1498,15 @@
       <c r="I4" s="10">
         <v>0.9</v>
       </c>
-      <c r="J4" s="11">
-        <v>0.45</v>
-      </c>
-      <c r="K4" s="11">
-        <v>-0.45</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.9</v>
-      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3">
         <v>6</v>
       </c>
@@ -1568,29 +1516,14 @@
       <c r="I5" s="10">
         <v>0.85</v>
       </c>
-      <c r="J5" s="11">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="K5" s="11">
-        <v>-0.42499999999999999</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.85</v>
-      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
       <c r="G6" s="3">
         <v>8</v>
       </c>
@@ -1600,15 +1533,9 @@
       <c r="I6" s="10">
         <v>0.8</v>
       </c>
-      <c r="J6" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="K6" s="11">
-        <v>-0.4</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.8</v>
-      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
@@ -1624,15 +1551,9 @@
       <c r="I7" s="10">
         <v>0.75</v>
       </c>
-      <c r="J7" s="11">
-        <v>0.375</v>
-      </c>
-      <c r="K7" s="11">
-        <v>-0.375</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.75</v>
-      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
@@ -1648,15 +1569,9 @@
       <c r="I8" s="10">
         <v>0.7</v>
       </c>
-      <c r="J8" s="11">
-        <v>0.35</v>
-      </c>
-      <c r="K8" s="11">
-        <v>-0.35</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.7</v>
-      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="10"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
@@ -1672,15 +1587,9 @@
       <c r="I9" s="10">
         <v>0.65</v>
       </c>
-      <c r="J9" s="11">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="K9" s="11">
-        <v>-0.32500000000000001</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0.65</v>
-      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
@@ -1696,15 +1605,9 @@
       <c r="I10" s="10">
         <v>0.6</v>
       </c>
-      <c r="J10" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="K10" s="11">
-        <v>-0.3</v>
-      </c>
-      <c r="L10" s="10">
-        <v>0.6</v>
-      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
@@ -1720,15 +1623,9 @@
       <c r="I11" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J11" s="11">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="K11" s="11">
-        <v>-0.27500000000000002</v>
-      </c>
-      <c r="L11" s="10">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
@@ -1744,15 +1641,9 @@
       <c r="I12" s="10">
         <v>0.5</v>
       </c>
-      <c r="J12" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-0.25</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0.5</v>
-      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
@@ -1768,15 +1659,9 @@
       <c r="I13" s="10">
         <v>0.45</v>
       </c>
-      <c r="J13" s="11">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="L13" s="10">
-        <v>0.45</v>
-      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
@@ -1792,15 +1677,9 @@
       <c r="I14" s="10">
         <v>0.39999999999999902</v>
       </c>
-      <c r="J14" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-0.2</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0.39999999999999902</v>
-      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
@@ -1816,15 +1695,9 @@
       <c r="I15" s="10">
         <v>0.34999999999999898</v>
       </c>
-      <c r="J15" s="11">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K15" s="11">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.34999999999999898</v>
-      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
@@ -1840,15 +1713,9 @@
       <c r="I16" s="10">
         <v>0.29999999999999899</v>
       </c>
-      <c r="J16" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="K16" s="11">
-        <v>-0.15</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0.29999999999999899</v>
-      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
@@ -1864,15 +1731,9 @@
       <c r="I17" s="10">
         <v>0.249999999999999</v>
       </c>
-      <c r="J17" s="11">
-        <v>0.125</v>
-      </c>
-      <c r="K17" s="11">
-        <v>-0.125</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0.249999999999999</v>
-      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
@@ -1888,15 +1749,9 @@
       <c r="I18" s="10">
         <v>0.19999999999999901</v>
       </c>
-      <c r="J18" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-0.1</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.19999999999999901</v>
-      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
@@ -1912,15 +1767,9 @@
       <c r="I19" s="10">
         <v>0.149999999999999</v>
       </c>
-      <c r="J19" s="11">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.149999999999999</v>
-      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
@@ -1936,15 +1785,9 @@
       <c r="I20" s="10">
         <v>9.9999999999999006E-2</v>
       </c>
-      <c r="J20" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="K20" s="11">
-        <v>-0.05</v>
-      </c>
-      <c r="L20" s="10">
-        <v>9.9999999999999006E-2</v>
-      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
@@ -1960,15 +1803,9 @@
       <c r="I21" s="10">
         <v>4.9999999999998997E-2</v>
       </c>
-      <c r="J21" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="L21" s="10">
-        <v>4.9999999999998997E-2</v>
-      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
@@ -1984,15 +1821,9 @@
       <c r="I22" s="10">
         <v>0</v>
       </c>
-      <c r="J22" s="11">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="10">
-        <v>0</v>
-      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
